--- a/trunk/Tuan1.xlsx
+++ b/trunk/Tuan1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="10455" windowHeight="4845"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>大項目</t>
   </si>
@@ -118,6 +118,69 @@
   </si>
   <si>
     <t>予約する</t>
+  </si>
+  <si>
+    <t>画面</t>
+  </si>
+  <si>
+    <t>全部の予約の情報を表す</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>輸出</t>
+  </si>
+  <si>
+    <t>予約</t>
+  </si>
+  <si>
+    <t>CSV、excel を輸出する</t>
+  </si>
+  <si>
+    <t>テナントさんとか会議室とかステータスとか時間とかから検索する</t>
+  </si>
+  <si>
+    <t>一度とか毎週とか毎月とかチェック</t>
+  </si>
+  <si>
+    <t>入力チェック(フォーム)</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>時間をチェック</t>
+  </si>
+  <si>
+    <t>予約のステータスと会議室のステータスを変更する</t>
+  </si>
+  <si>
+    <t>金額を計算</t>
+  </si>
+  <si>
+    <t>VietToan</t>
+  </si>
+  <si>
+    <t>TuanAnh</t>
+  </si>
+  <si>
+    <t>データの並び替え</t>
+  </si>
+  <si>
+    <t>テナントさんの名前とか電話番号とかから検索する</t>
+  </si>
+  <si>
+    <t>テナントさんの全部の情報を表す</t>
+  </si>
+  <si>
+    <t>テナントさんの順番を表す</t>
+  </si>
+  <si>
+    <t>ユーザーの機能のログインが禁止します。</t>
+  </si>
+  <si>
+    <t>Lam</t>
   </si>
 </sst>
 </file>
@@ -149,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -322,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -454,6 +523,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -462,6 +546,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -750,17 +839,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="12" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="11" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="13" customWidth="1"/>
@@ -1014,7 +1101,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" ht="30">
       <c r="A8" s="26"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
@@ -1187,6 +1274,9 @@
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1204,6 +1294,12 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:36">
+      <c r="A14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1222,7 +1318,10 @@
     </row>
     <row r="15" spans="1:36">
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1240,7 +1339,10 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" ht="30">
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -1259,7 +1361,10 @@
     </row>
     <row r="17" spans="1:26">
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1277,32 +1382,184 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
+    <row r="18" spans="1:26">
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+    </row>
     <row r="19" spans="1:26">
       <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="7" t="s">
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="30">
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="43" customFormat="1">
+      <c r="A23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="B23" s="4" t="s">
-        <v>29</v>
+      <c r="C23" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="7" t="s">
+    <row r="29" spans="1:26" s="43" customFormat="1">
+      <c r="A29" s="45" t="s">
         <v>33</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="30">
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="30">
+      <c r="C45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Tuan1.xlsx
+++ b/trunk/Tuan1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>大項目</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Lam</t>
+  </si>
+  <si>
+    <t>全部会議室の状態を表す</t>
+  </si>
+  <si>
+    <t>会議室がいつからいつまで予約られたか、予約られなかったかを表す。会議室の状態を変わることを表す。</t>
+  </si>
+  <si>
+    <t>この時間予約られない会議室を計算できる。この会議室いつ予約しますかいつ予約できませんか</t>
   </si>
 </sst>
 </file>
@@ -841,7 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1459,15 +1470,34 @@
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:26">
       <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="60">
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="1:26">
       <c r="B27" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="45">
+      <c r="C28" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="43" customFormat="1">

--- a/trunk/Tuan1.xlsx
+++ b/trunk/Tuan1.xlsx
@@ -186,10 +186,10 @@
     <t>全部会議室の状態を表す</t>
   </si>
   <si>
-    <t>会議室がいつからいつまで予約られたか、予約られなかったかを表す。会議室の状態を変わることを表す。</t>
-  </si>
-  <si>
-    <t>この時間予約られない会議室を計算できる。この会議室いつ予約しますかいつ予約できませんか</t>
+    <t>会議室がいつからいつまで予約されたか、予約されなかったかを表す。各会議室の設備を表す。</t>
+  </si>
+  <si>
+    <t>会議室の設備を変更することを表す</t>
   </si>
 </sst>
 </file>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,7 +1482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="60">
+    <row r="26" spans="1:26" ht="45">
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="45">
+    <row r="28" spans="1:26" ht="30">
       <c r="C28" s="2" t="s">
         <v>57</v>
       </c>

--- a/trunk/Tuan1.xlsx
+++ b/trunk/Tuan1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>大項目</t>
   </si>
@@ -190,17 +190,21 @@
   </si>
   <si>
     <t>会議室の設備を変更することを表す</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +212,7 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,8 +220,15 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -850,29 +861,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="7" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="8"/>
-    <col min="15" max="16384" width="9.140625" style="11"/>
+    <col min="9" max="9" width="7.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="11" customWidth="1"/>
+    <col min="13" max="14" width="9.125" style="8"/>
+    <col min="15" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:36" s="6" customFormat="1" ht="17.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1123,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:36" ht="30">
+    <row r="8" spans="1:36">
       <c r="A8" s="26"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
@@ -1350,7 +1361,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:36" ht="30">
+    <row r="16" spans="1:36" ht="27">
       <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="30">
+    <row r="22" spans="1:26">
       <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +1493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="45">
+    <row r="26" spans="1:26" ht="40.5">
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="30">
+    <row r="28" spans="1:26">
       <c r="C28" s="2" t="s">
         <v>57</v>
       </c>
@@ -1538,7 +1549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="30">
+    <row r="34" spans="2:3" ht="27">
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -1582,7 +1593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="30">
+    <row r="45" spans="2:3" ht="27">
       <c r="C45" s="2" t="s">
         <v>45</v>
       </c>
@@ -1591,8 +1602,12 @@
       <c r="B47" s="49" t="s">
         <v>46</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1604,8 +1619,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1616,8 +1632,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>